--- a/medicine/Enfance/Jack_Schaefer/Jack_Schaefer.xlsx
+++ b/medicine/Enfance/Jack_Schaefer/Jack_Schaefer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jack Schaefer, né le 19 novembre 1907 et mort le 24 janvier 1991, est un écrivain américain. Il est l'auteur de Shane, dont est adapté le film L'Homme des vallées perdues.
 </t>
